--- a/biology/Botanique/Architecture_navale/Architecture_navale.xlsx
+++ b/biology/Botanique/Architecture_navale/Architecture_navale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'architecture navale est l'art de concevoir des structures navigantes maritimes et fluviales, pouvant se déplacer sur l'eau et sous l'eau, dont principalement tous les types de bateaux et navires.
 Dans sa conception moderne, l'architecture navale relève de deux grands domaines : l'architecture et l'ingénierie.
@@ -514,7 +526,9 @@
           <t>Travail de l'architecte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un architecte naval doit concevoir un engin (navire, bateau, plate-forme pétrolière, sous-marin…) qui doit répondre à un cahier des charges. Par exemple :
 transporter une charge donnée : X milliers de tonnes de tel minerai ou Y passagers,
@@ -552,7 +566,9 @@
           <t>Démarche typique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En premier lieu, l'armateur soumet son cahier des charges à l'architecte. Le cahier des charges peut être très détaillé, par exemple en choisissant déjà la marque des moteurs, ou au contraire très succinct (une route, une vitesse, une capacité).
 L'architecte peut donc créer une esquisse, donnant quelques dimensions, une silhouette générale, parfois des capacités. Pour cela, il utilise en général les données existantes sur des navires similaires, ainsi que ses propres réalisations passées.
@@ -587,7 +603,9 @@
           <t>Éléments d'un projet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le projet bouclé consiste en un certain nombre de plans et de documents :
 un plan de formes, représentant la forme extérieure du navire dans les trois dimensions, ainsi que ses dimensions principales ;
@@ -624,7 +642,9 @@
           <t>Aspects à traiter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un projet de navire doit prendre en compte différents éléments indispensables :
 Flottaison et inclinaison : le navire doit flotter dans ses lignes (ou, pour un sous-marin, être capable de conserver son immersion);
@@ -666,7 +686,9 @@
           <t>Outils</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les architectes navals utilisent actuellement des outils informatiques : CAO / FAO, notamment des programmes spécialisés (calcul des masses et du centrage, calculs de carène, calculs de stabilité, calculs de structure et contraintes…).
 Par exemple pour la partie hydrodynamique navale de la boucle navire, l'architecte naval dispose d'outils de CFD (Computational Fluid Dynamics) de plus en plus performants, à la modélisation de plus en plus complexe (écoulement Navier-Stokes instationnaire à surface libre), qui lui permettent de choisir parmi des dizaines de formes de navires celle qui correspondra à son cahier des charges. Cette forme sera ensuite, la plupart du temps pour les grands projets de navires (paquebot, voilier de course, navire militaire, navire de recherche, de commerce, de pêche), testée à échelle réduite en bassin d'essai des carènes afin de confirmer les prévisions des calculs numériques.
